--- a/1-regression-analysis-and-predictive-models/logistic-regression/penguins-logistic-solution.xlsx
+++ b/1-regression-analysis-and-predictive-models/logistic-regression/penguins-logistic-solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\logistic-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\logistic-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9E9EE9-5816-4D9E-808F-DAC92E77DE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211D26B-6F0F-420F-9D3F-F72C6CC3EFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1082,7 +1082,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="438" row="5">
+  <wetp:taskpane dockstate="right" visibility="1" width="788" row="6">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1113,30 +1113,30 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.41015625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.8726227616371518</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0.76147048412724938</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0.75935335824672201</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>393.40479657199114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1176,12 +1176,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>8.1885256449237787E-105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1249,8 +1249,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>-5320.3505651055866</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>14.644174889142558</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>46.985583435793558</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>55.141780528857211</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1401,8 +1401,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>17</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>19</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>20</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>21</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>22</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>23</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>26</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>27</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>28</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>29</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>30</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>31</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>32</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>33</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>34</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>35</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>36</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>37</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>38</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>39</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>40</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>41</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>42</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>43</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>44</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>45</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>46</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>47</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>48</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>49</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>50</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>51</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>52</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>53</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>54</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>55</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>56</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>57</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>58</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>59</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>60</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>61</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>62</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>63</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>64</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>65</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>66</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>67</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>68</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>69</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>70</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>71</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>72</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>73</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>74</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>75</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>76</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>77</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>78</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>79</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>80</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>81</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>82</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>83</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>84</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>85</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>86</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>87</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>88</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>89</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>90</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>91</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>92</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>93</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>94</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>95</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>96</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>97</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>98</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>100</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>101</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>102</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>103</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>104</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>105</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>106</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>107</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>108</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>109</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>110</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>111</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>112</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>113</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>114</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>115</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>117</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>118</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>119</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>120</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>121</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>122</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>123</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>124</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>125</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>126</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>127</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>128</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>129</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>130</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>131</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>132</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>133</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>134</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>135</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>136</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>137</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>138</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>139</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>140</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>141</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>142</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>143</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>144</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>145</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>146</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>147</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>148</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>149</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>150</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>151</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>152</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>153</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>154</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>155</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>156</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>157</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>158</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>159</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>160</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>161</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>162</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>163</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>164</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>165</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>166</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>167</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>168</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>169</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>170</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>171</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>172</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>173</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>174</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>175</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>176</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>177</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>178</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>179</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>180</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>181</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>182</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>183</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>184</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>185</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>186</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>187</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>188</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>189</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>190</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>191</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>192</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>193</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>194</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>195</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>196</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>197</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>198</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>199</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>200</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>201</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>202</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>203</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>204</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>205</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>206</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>207</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>208</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>209</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>210</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>211</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>212</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>213</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>214</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>215</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>216</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>217</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>218</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>219</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>220</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>221</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>222</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>223</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>224</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>225</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>226</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>227</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>228</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>229</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>230</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>231</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>232</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>233</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>234</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>235</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>236</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>237</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>238</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>239</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>240</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>241</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>242</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>243</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>244</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>245</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>246</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>247</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>248</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>249</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>250</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>251</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>252</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>253</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>254</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>255</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>256</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>257</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>258</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>259</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>260</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>261</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>262</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>263</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>264</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>265</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>266</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>267</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>268</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>269</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>270</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>271</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>272</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>273</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>274</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>275</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>276</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>277</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>278</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>279</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>280</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>281</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>282</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>283</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>284</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>285</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>286</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>287</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>288</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>289</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>290</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>291</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>292</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>293</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>294</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>295</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>296</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>297</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>298</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>299</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>300</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>301</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>302</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>303</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>304</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>305</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>306</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>307</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>308</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>309</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>310</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>311</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>312</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>313</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>314</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>315</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>316</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>317</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>318</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>319</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>320</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>321</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>322</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>323</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>324</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>325</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>326</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>327</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>328</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>329</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>330</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>331</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>332</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>333</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>334</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>335</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>336</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>337</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>338</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>339</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>340</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>341</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2">
         <v>342</v>
       </c>
@@ -8274,27 +8274,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S334"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.64453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.9375" customWidth="1"/>
+    <col min="11" max="11" width="16.9375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="11.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>302.60556880748766</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>14</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>159.00342605279721</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>15</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>18</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>20</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>22</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>24</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>3.1293758917129377E+31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>25</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>0.98647689078835388</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>27</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>0.21383016993420909</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>30</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>1.1058272751609086</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>32</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>0.99610956887118174</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>34</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>36</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>37</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>40</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>42</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>44</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>46</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>47</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>50</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>52</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>54</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>56</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>58</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>60</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>62</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>64</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>66</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>68</v>
       </c>
@@ -9442,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>70</v>
       </c>
@@ -9472,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>72</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>74</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>76</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>78</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>80</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>82</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>84</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>86</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>87</v>
       </c>
@@ -9742,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>89</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>92</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>94</v>
       </c>
@@ -9832,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>96</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>98</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>100</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>102</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>104</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>106</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>108</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>110</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>112</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>114</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>116</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>118</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>120</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>122</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>124</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>126</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>128</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>130</v>
       </c>
@@ -10372,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>132</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>134</v>
       </c>
@@ -10432,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>136</v>
       </c>
@@ -10462,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>138</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>140</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>142</v>
       </c>
@@ -10552,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>144</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>146</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>147</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>150</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>152</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>154</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>156</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>157</v>
       </c>
@@ -10792,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>160</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>162</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>164</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>166</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>168</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>170</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>172</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>173</v>
       </c>
@@ -11032,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>176</v>
       </c>
@@ -11062,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>178</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>180</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>182</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>183</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>186</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>188</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>190</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>192</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>194</v>
       </c>
@@ -11332,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>196</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>197</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>200</v>
       </c>
@@ -11422,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>202</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>204</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>206</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>208</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>210</v>
       </c>
@@ -11572,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>212</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>214</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>216</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>218</v>
       </c>
@@ -11692,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>220</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>222</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>224</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>225</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>228</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>230</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>232</v>
       </c>
@@ -11902,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>234</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>236</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>238</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>240</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>242</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>244</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>246</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>248</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>249</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>252</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>254</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>256</v>
       </c>
@@ -12262,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>258</v>
       </c>
@@ -12292,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>260</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>262</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>264</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>266</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>268</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>270</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>274</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>276</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>278</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>279</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>281</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>284</v>
       </c>
@@ -12652,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>286</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>288</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>290</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>292</v>
       </c>
@@ -12772,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>293</v>
       </c>
@@ -12802,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>296</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>298</v>
       </c>
@@ -12862,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>300</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>302</v>
       </c>
@@ -12922,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>304</v>
       </c>
@@ -12952,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>306</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>308</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>310</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>311</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>314</v>
       </c>
@@ -13102,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>316</v>
       </c>
@@ -13132,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>317</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>319</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>322</v>
       </c>
@@ -13222,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>324</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>325</v>
       </c>
@@ -13282,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>328</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>330</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>332</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>334</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>335</v>
       </c>
@@ -13432,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>337</v>
       </c>
@@ -13462,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>340</v>
       </c>
@@ -13492,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>342</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>343</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>2</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>3</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>5</v>
       </c>
@@ -13642,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>7</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>13</v>
       </c>
@@ -13702,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>16</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>17</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>19</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>21</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>23</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>26</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>28</v>
       </c>
@@ -13912,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>29</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>31</v>
       </c>
@@ -13972,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>33</v>
       </c>
@@ -14002,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>35</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>38</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>39</v>
       </c>
@@ -14092,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>41</v>
       </c>
@@ -14122,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>43</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>45</v>
       </c>
@@ -14182,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>49</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>51</v>
       </c>
@@ -14242,7 +14243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>53</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>55</v>
       </c>
@@ -14302,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>57</v>
       </c>
@@ -14332,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>59</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>61</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>63</v>
       </c>
@@ -14422,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>65</v>
       </c>
@@ -14452,7 +14453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>67</v>
       </c>
@@ -14482,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>69</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>71</v>
       </c>
@@ -14542,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>73</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>75</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>77</v>
       </c>
@@ -14632,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>79</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>81</v>
       </c>
@@ -14692,7 +14693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>83</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>85</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>88</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>90</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>91</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>93</v>
       </c>
@@ -14872,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>97</v>
       </c>
@@ -14932,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>99</v>
       </c>
@@ -14962,7 +14963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>101</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>103</v>
       </c>
@@ -15022,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>105</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>107</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>109</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>111</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>113</v>
       </c>
@@ -15172,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>115</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>117</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>119</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>121</v>
       </c>
@@ -15292,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>123</v>
       </c>
@@ -15322,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>125</v>
       </c>
@@ -15352,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>127</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>129</v>
       </c>
@@ -15412,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>131</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>133</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>135</v>
       </c>
@@ -15502,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>137</v>
       </c>
@@ -15532,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>139</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>141</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>143</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>145</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>148</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>149</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>151</v>
       </c>
@@ -15742,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>153</v>
       </c>
@@ -15772,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>155</v>
       </c>
@@ -15802,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>158</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>159</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>161</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>163</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>165</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>167</v>
       </c>
@@ -15982,7 +15983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>169</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>171</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>174</v>
       </c>
@@ -16072,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>175</v>
       </c>
@@ -16102,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>177</v>
       </c>
@@ -16132,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>181</v>
       </c>
@@ -16162,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>184</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>185</v>
       </c>
@@ -16222,7 +16223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>187</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>189</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>191</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>193</v>
       </c>
@@ -16342,7 +16343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>195</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>198</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>199</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>201</v>
       </c>
@@ -16462,7 +16463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>203</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>205</v>
       </c>
@@ -16522,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>207</v>
       </c>
@@ -16552,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>209</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>211</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>213</v>
       </c>
@@ -16642,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>215</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>217</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>221</v>
       </c>
@@ -16732,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>223</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>226</v>
       </c>
@@ -16792,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>227</v>
       </c>
@@ -16822,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>229</v>
       </c>
@@ -16852,7 +16853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>231</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>233</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>235</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>237</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>239</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>241</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>243</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>245</v>
       </c>
@@ -17092,7 +17093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>247</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>250</v>
       </c>
@@ -17152,7 +17153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>251</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>253</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>255</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>259</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>261</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>263</v>
       </c>
@@ -17332,7 +17333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>265</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>267</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>271</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>273</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>275</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>277</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>280</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>282</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>283</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>285</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>287</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>289</v>
       </c>
@@ -17692,7 +17693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>291</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>294</v>
       </c>
@@ -17752,7 +17753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>295</v>
       </c>
@@ -17782,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>297</v>
       </c>
@@ -17812,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>299</v>
       </c>
@@ -17842,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>301</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>303</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>305</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>307</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>309</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>312</v>
       </c>
@@ -18022,7 +18023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>313</v>
       </c>
@@ -18052,7 +18053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>315</v>
       </c>
@@ -18082,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>318</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>320</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>321</v>
       </c>
@@ -18172,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -18202,7 +18203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>326</v>
       </c>
@@ -18232,7 +18233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>327</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>329</v>
       </c>
@@ -18292,7 +18293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>331</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>333</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>336</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>338</v>
       </c>
@@ -18412,7 +18413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>339</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>341</v>
       </c>
@@ -18472,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>344</v>
       </c>
@@ -18513,7 +18514,7 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{F1C61A5C-4239-42D9-B6CA-E6F6FFADB4FB}">
-          <xm:f>'penguins-logistic-1'!1:1048576</xm:f>
+          <xm:f>'penguins-logistic-2'!1:1048576</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{31442456-D85A-49D4-B35C-7BE34A923D6D}">
           <xm:f>'penguins-logistic-2'!$H$1:$H$334</xm:f>
@@ -18534,22 +18535,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C404436D-13B0-4EA9-B509-1B5CF40F56EF}">
   <dimension ref="A1:R334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -18578,7 +18579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>6</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -18668,7 +18669,7 @@
         <v>301.72121760283187</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>14</v>
       </c>
@@ -18701,7 +18702,7 @@
         <v>159.88777725745294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>15</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>18</v>
       </c>
@@ -18767,7 +18768,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>20</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>22</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>24</v>
       </c>
@@ -18899,7 +18900,7 @@
         <v>2.1244001431846146E+32</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>25</v>
       </c>
@@ -18953,7 +18954,7 @@
         <v>0.99505592954162336</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>27</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>0.20618809759819023</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>30</v>
       </c>
@@ -19061,7 +19062,7 @@
         <v>0.99619092516135455</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>32</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>34</v>
       </c>
@@ -19115,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>36</v>
       </c>
@@ -19142,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>37</v>
       </c>
@@ -19169,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>40</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>42</v>
       </c>
@@ -19223,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>44</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>46</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>47</v>
       </c>
@@ -19304,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>50</v>
       </c>
@@ -19331,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>52</v>
       </c>
@@ -19358,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>54</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>56</v>
       </c>
@@ -19412,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>58</v>
       </c>
@@ -19439,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>60</v>
       </c>
@@ -19466,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>62</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>64</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>66</v>
       </c>
@@ -19547,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>68</v>
       </c>
@@ -19574,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>70</v>
       </c>
@@ -19601,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>72</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>74</v>
       </c>
@@ -19655,7 +19656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>76</v>
       </c>
@@ -19682,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>78</v>
       </c>
@@ -19709,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>80</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>82</v>
       </c>
@@ -19763,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>84</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>86</v>
       </c>
@@ -19817,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>87</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>89</v>
       </c>
@@ -19871,7 +19872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>92</v>
       </c>
@@ -19898,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>94</v>
       </c>
@@ -19925,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>96</v>
       </c>
@@ -19952,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>98</v>
       </c>
@@ -19979,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>100</v>
       </c>
@@ -20006,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>102</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>104</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>106</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>108</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>110</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>112</v>
       </c>
@@ -20168,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>114</v>
       </c>
@@ -20195,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>116</v>
       </c>
@@ -20222,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>118</v>
       </c>
@@ -20249,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>120</v>
       </c>
@@ -20276,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>122</v>
       </c>
@@ -20303,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>124</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>126</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>128</v>
       </c>
@@ -20384,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>130</v>
       </c>
@@ -20411,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>132</v>
       </c>
@@ -20438,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>134</v>
       </c>
@@ -20465,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>136</v>
       </c>
@@ -20492,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>138</v>
       </c>
@@ -20519,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>140</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>142</v>
       </c>
@@ -20573,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>144</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>146</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>147</v>
       </c>
@@ -20654,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>150</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>152</v>
       </c>
@@ -20708,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>154</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>156</v>
       </c>
@@ -20762,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>157</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>160</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>162</v>
       </c>
@@ -20843,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>164</v>
       </c>
@@ -20870,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>166</v>
       </c>
@@ -20897,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>168</v>
       </c>
@@ -20924,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>170</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>172</v>
       </c>
@@ -20978,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>173</v>
       </c>
@@ -21005,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>176</v>
       </c>
@@ -21032,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>178</v>
       </c>
@@ -21059,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>180</v>
       </c>
@@ -21086,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>182</v>
       </c>
@@ -21113,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>183</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>186</v>
       </c>
@@ -21167,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>188</v>
       </c>
@@ -21194,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>190</v>
       </c>
@@ -21221,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>192</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>194</v>
       </c>
@@ -21275,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>196</v>
       </c>
@@ -21302,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>197</v>
       </c>
@@ -21329,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>200</v>
       </c>
@@ -21356,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>202</v>
       </c>
@@ -21383,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>204</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>206</v>
       </c>
@@ -21437,7 +21438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>208</v>
       </c>
@@ -21464,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>210</v>
       </c>
@@ -21491,7 +21492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>212</v>
       </c>
@@ -21518,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>214</v>
       </c>
@@ -21545,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>216</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>218</v>
       </c>
@@ -21599,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>220</v>
       </c>
@@ -21626,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>222</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>224</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>225</v>
       </c>
@@ -21707,7 +21708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>228</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>230</v>
       </c>
@@ -21761,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>232</v>
       </c>
@@ -21788,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>234</v>
       </c>
@@ -21815,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>236</v>
       </c>
@@ -21842,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>238</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>240</v>
       </c>
@@ -21896,7 +21897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>242</v>
       </c>
@@ -21923,7 +21924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>244</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>246</v>
       </c>
@@ -21977,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>248</v>
       </c>
@@ -22004,7 +22005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>249</v>
       </c>
@@ -22031,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>252</v>
       </c>
@@ -22058,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>254</v>
       </c>
@@ -22085,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>256</v>
       </c>
@@ -22112,7 +22113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>258</v>
       </c>
@@ -22139,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>260</v>
       </c>
@@ -22166,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>262</v>
       </c>
@@ -22193,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>264</v>
       </c>
@@ -22220,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>266</v>
       </c>
@@ -22247,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>268</v>
       </c>
@@ -22274,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>270</v>
       </c>
@@ -22301,7 +22302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>274</v>
       </c>
@@ -22328,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>276</v>
       </c>
@@ -22355,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>278</v>
       </c>
@@ -22382,7 +22383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>279</v>
       </c>
@@ -22409,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>281</v>
       </c>
@@ -22436,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>284</v>
       </c>
@@ -22463,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>286</v>
       </c>
@@ -22490,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>288</v>
       </c>
@@ -22517,7 +22518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>290</v>
       </c>
@@ -22544,7 +22545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>292</v>
       </c>
@@ -22571,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>293</v>
       </c>
@@ -22598,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>296</v>
       </c>
@@ -22625,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>298</v>
       </c>
@@ -22652,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>300</v>
       </c>
@@ -22679,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>302</v>
       </c>
@@ -22706,7 +22707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>304</v>
       </c>
@@ -22733,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>306</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>308</v>
       </c>
@@ -22787,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>310</v>
       </c>
@@ -22814,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>311</v>
       </c>
@@ -22841,7 +22842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>314</v>
       </c>
@@ -22868,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>316</v>
       </c>
@@ -22895,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>317</v>
       </c>
@@ -22922,7 +22923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>319</v>
       </c>
@@ -22949,7 +22950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>322</v>
       </c>
@@ -22976,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>324</v>
       </c>
@@ -23003,7 +23004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>325</v>
       </c>
@@ -23030,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>328</v>
       </c>
@@ -23057,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>330</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>332</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>334</v>
       </c>
@@ -23138,7 +23139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>335</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>337</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>340</v>
       </c>
@@ -23219,7 +23220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>342</v>
       </c>
@@ -23246,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>343</v>
       </c>
@@ -23273,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>2</v>
       </c>
@@ -23300,7 +23301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>3</v>
       </c>
@@ -23327,7 +23328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>5</v>
       </c>
@@ -23354,7 +23355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>7</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>13</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>16</v>
       </c>
@@ -23435,7 +23436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>17</v>
       </c>
@@ -23462,7 +23463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>19</v>
       </c>
@@ -23489,7 +23490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>21</v>
       </c>
@@ -23516,7 +23517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>23</v>
       </c>
@@ -23543,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>26</v>
       </c>
@@ -23570,7 +23571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>28</v>
       </c>
@@ -23597,7 +23598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>29</v>
       </c>
@@ -23624,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>31</v>
       </c>
@@ -23651,7 +23652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>33</v>
       </c>
@@ -23678,7 +23679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>35</v>
       </c>
@@ -23705,7 +23706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>38</v>
       </c>
@@ -23732,7 +23733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>39</v>
       </c>
@@ -23759,7 +23760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>41</v>
       </c>
@@ -23786,7 +23787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>43</v>
       </c>
@@ -23813,7 +23814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>45</v>
       </c>
@@ -23840,7 +23841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>49</v>
       </c>
@@ -23867,7 +23868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>51</v>
       </c>
@@ -23894,7 +23895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>53</v>
       </c>
@@ -23921,7 +23922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>55</v>
       </c>
@@ -23948,7 +23949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>57</v>
       </c>
@@ -23975,7 +23976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>59</v>
       </c>
@@ -24002,7 +24003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>61</v>
       </c>
@@ -24029,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>63</v>
       </c>
@@ -24056,7 +24057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>65</v>
       </c>
@@ -24083,7 +24084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>67</v>
       </c>
@@ -24110,7 +24111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>69</v>
       </c>
@@ -24137,7 +24138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>71</v>
       </c>
@@ -24164,7 +24165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>73</v>
       </c>
@@ -24191,7 +24192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>75</v>
       </c>
@@ -24218,7 +24219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>77</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>79</v>
       </c>
@@ -24272,7 +24273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>81</v>
       </c>
@@ -24299,7 +24300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>83</v>
       </c>
@@ -24326,7 +24327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>85</v>
       </c>
@@ -24353,7 +24354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>88</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>90</v>
       </c>
@@ -24407,7 +24408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>91</v>
       </c>
@@ -24434,7 +24435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>93</v>
       </c>
@@ -24461,7 +24462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -24488,7 +24489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>97</v>
       </c>
@@ -24515,7 +24516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>99</v>
       </c>
@@ -24542,7 +24543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>101</v>
       </c>
@@ -24569,7 +24570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>103</v>
       </c>
@@ -24596,7 +24597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>105</v>
       </c>
@@ -24623,7 +24624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>107</v>
       </c>
@@ -24650,7 +24651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>109</v>
       </c>
@@ -24677,7 +24678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>111</v>
       </c>
@@ -24704,7 +24705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>113</v>
       </c>
@@ -24731,7 +24732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>115</v>
       </c>
@@ -24758,7 +24759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>117</v>
       </c>
@@ -24785,7 +24786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>119</v>
       </c>
@@ -24812,7 +24813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>121</v>
       </c>
@@ -24839,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>123</v>
       </c>
@@ -24866,7 +24867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>125</v>
       </c>
@@ -24893,7 +24894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>127</v>
       </c>
@@ -24920,7 +24921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>129</v>
       </c>
@@ -24947,7 +24948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>131</v>
       </c>
@@ -24974,7 +24975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>133</v>
       </c>
@@ -25001,7 +25002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>135</v>
       </c>
@@ -25028,7 +25029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>137</v>
       </c>
@@ -25055,7 +25056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>139</v>
       </c>
@@ -25082,7 +25083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>141</v>
       </c>
@@ -25109,7 +25110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>143</v>
       </c>
@@ -25136,7 +25137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>145</v>
       </c>
@@ -25163,7 +25164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>148</v>
       </c>
@@ -25190,7 +25191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>149</v>
       </c>
@@ -25217,7 +25218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>151</v>
       </c>
@@ -25244,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>153</v>
       </c>
@@ -25271,7 +25272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>155</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>158</v>
       </c>
@@ -25325,7 +25326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>159</v>
       </c>
@@ -25352,7 +25353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>161</v>
       </c>
@@ -25379,7 +25380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>163</v>
       </c>
@@ -25406,7 +25407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>165</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>167</v>
       </c>
@@ -25460,7 +25461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>169</v>
       </c>
@@ -25487,7 +25488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>171</v>
       </c>
@@ -25514,7 +25515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>174</v>
       </c>
@@ -25541,7 +25542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>175</v>
       </c>
@@ -25568,7 +25569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>177</v>
       </c>
@@ -25595,7 +25596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>181</v>
       </c>
@@ -25622,7 +25623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>184</v>
       </c>
@@ -25649,7 +25650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>185</v>
       </c>
@@ -25676,7 +25677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>187</v>
       </c>
@@ -25703,7 +25704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>189</v>
       </c>
@@ -25730,7 +25731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>191</v>
       </c>
@@ -25757,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>193</v>
       </c>
@@ -25784,7 +25785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>195</v>
       </c>
@@ -25811,7 +25812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>198</v>
       </c>
@@ -25838,7 +25839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>199</v>
       </c>
@@ -25865,7 +25866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>201</v>
       </c>
@@ -25892,7 +25893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>203</v>
       </c>
@@ -25919,7 +25920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>205</v>
       </c>
@@ -25946,7 +25947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>207</v>
       </c>
@@ -25973,7 +25974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>209</v>
       </c>
@@ -26000,7 +26001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>211</v>
       </c>
@@ -26027,7 +26028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>213</v>
       </c>
@@ -26054,7 +26055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>215</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>217</v>
       </c>
@@ -26108,7 +26109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>221</v>
       </c>
@@ -26135,7 +26136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>223</v>
       </c>
@@ -26162,7 +26163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>226</v>
       </c>
@@ -26189,7 +26190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>227</v>
       </c>
@@ -26216,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>229</v>
       </c>
@@ -26243,7 +26244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>231</v>
       </c>
@@ -26270,7 +26271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>233</v>
       </c>
@@ -26297,7 +26298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>235</v>
       </c>
@@ -26324,7 +26325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>237</v>
       </c>
@@ -26351,7 +26352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>239</v>
       </c>
@@ -26378,7 +26379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>241</v>
       </c>
@@ -26405,7 +26406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>243</v>
       </c>
@@ -26432,7 +26433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>245</v>
       </c>
@@ -26459,7 +26460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>247</v>
       </c>
@@ -26486,7 +26487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>250</v>
       </c>
@@ -26513,7 +26514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>251</v>
       </c>
@@ -26540,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>253</v>
       </c>
@@ -26567,7 +26568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>255</v>
       </c>
@@ -26594,7 +26595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>259</v>
       </c>
@@ -26621,7 +26622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>261</v>
       </c>
@@ -26648,7 +26649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>263</v>
       </c>
@@ -26675,7 +26676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>265</v>
       </c>
@@ -26702,7 +26703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>267</v>
       </c>
@@ -26729,7 +26730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>271</v>
       </c>
@@ -26756,7 +26757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>273</v>
       </c>
@@ -26783,7 +26784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>275</v>
       </c>
@@ -26810,7 +26811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>277</v>
       </c>
@@ -26837,7 +26838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>280</v>
       </c>
@@ -26864,7 +26865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>282</v>
       </c>
@@ -26891,7 +26892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>283</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>285</v>
       </c>
@@ -26945,7 +26946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>287</v>
       </c>
@@ -26972,7 +26973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>289</v>
       </c>
@@ -26999,7 +27000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>291</v>
       </c>
@@ -27026,7 +27027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>294</v>
       </c>
@@ -27053,7 +27054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>295</v>
       </c>
@@ -27080,7 +27081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>297</v>
       </c>
@@ -27107,7 +27108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>299</v>
       </c>
@@ -27134,7 +27135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>301</v>
       </c>
@@ -27161,7 +27162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>303</v>
       </c>
@@ -27188,7 +27189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>305</v>
       </c>
@@ -27215,7 +27216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>307</v>
       </c>
@@ -27242,7 +27243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>309</v>
       </c>
@@ -27269,7 +27270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>312</v>
       </c>
@@ -27296,7 +27297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>313</v>
       </c>
@@ -27323,7 +27324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>315</v>
       </c>
@@ -27350,7 +27351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>318</v>
       </c>
@@ -27377,7 +27378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>320</v>
       </c>
@@ -27404,7 +27405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>321</v>
       </c>
@@ -27431,7 +27432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27458,7 +27459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>326</v>
       </c>
@@ -27485,7 +27486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>327</v>
       </c>
@@ -27512,7 +27513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>329</v>
       </c>
@@ -27539,7 +27540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>331</v>
       </c>
@@ -27566,7 +27567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>333</v>
       </c>
@@ -27593,7 +27594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>336</v>
       </c>
@@ -27620,7 +27621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>338</v>
       </c>
@@ -27647,7 +27648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>339</v>
       </c>
@@ -27674,7 +27675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>341</v>
       </c>
@@ -27701,7 +27702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>344</v>
       </c>
